--- a/backend/resources/templates/export_transactions_template.xlsx
+++ b/backend/resources/templates/export_transactions_template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43280C7F-88E9-4F01-B15C-1F0558681712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Development/micropowermanager/src/backend/resources/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6318868-DF0C-4B4D-B143-83F492B82E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20980" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Status</t>
   </si>
@@ -42,9 +47,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -52,13 +54,19 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Device Serial Number</t>
+  </si>
+  <si>
+    <t>Device Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,22 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,16 +457,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/resources/templates/export_transactions_template.xlsx
+++ b/backend/resources/templates/export_transactions_template.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27318"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Development/micropowermanager/src/backend/resources/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6318868-DF0C-4B4D-B143-83F492B82E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43280C7F-88E9-4F01-B15C-1F0558681712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="20980" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Status</t>
   </si>
@@ -47,6 +42,9 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -54,19 +52,13 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Device Serial Number</t>
-  </si>
-  <si>
-    <t>Device Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,22 +423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +449,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
